--- a/GA/Points.xlsx
+++ b/GA/Points.xlsx
@@ -4,12 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="WAW-VNO" sheetId="1" r:id="rId1"/>
+    <sheet name="RIA-VNO" sheetId="2" r:id="rId2"/>
+    <sheet name="MNSK-VNO" sheetId="3" r:id="rId3"/>
+    <sheet name="POINTS" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="24">
   <si>
     <t>EPWA</t>
   </si>
@@ -61,6 +65,36 @@
   </si>
   <si>
     <t>No.</t>
+  </si>
+  <si>
+    <t>EVRA</t>
+  </si>
+  <si>
+    <t>ERIVA</t>
+  </si>
+  <si>
+    <t>MURUN</t>
+  </si>
+  <si>
+    <t>VI403</t>
+  </si>
+  <si>
+    <t>GEKBI</t>
+  </si>
+  <si>
+    <t>UMMS</t>
+  </si>
+  <si>
+    <t>DUKAT</t>
+  </si>
+  <si>
+    <t>VI408</t>
+  </si>
+  <si>
+    <t>VI407</t>
+  </si>
+  <si>
+    <t>EKSAM</t>
   </si>
 </sst>
 </file>
@@ -99,13 +133,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -388,8 +423,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -436,6 +471,9 @@
       <c r="E2">
         <v>0</v>
       </c>
+      <c r="F2">
+        <v>280</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -454,7 +492,7 @@
         <v>0</v>
       </c>
       <c r="F3">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
@@ -474,7 +512,7 @@
         <v>0</v>
       </c>
       <c r="F4">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.35">
@@ -494,7 +532,7 @@
         <v>0</v>
       </c>
       <c r="F5">
-        <v>250</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.35">
@@ -534,7 +572,7 @@
         <v>0</v>
       </c>
       <c r="F7">
-        <v>250</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.35">
@@ -554,7 +592,7 @@
         <v>0</v>
       </c>
       <c r="F8">
-        <v>250</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.35">
@@ -574,11 +612,559 @@
         <v>0</v>
       </c>
       <c r="F9">
-        <v>100</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.36328125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="1">
+        <v>56.923667000000002</v>
+      </c>
+      <c r="D2" s="2">
+        <v>23.971167000000001</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1">
+        <v>56.368833000000002</v>
+      </c>
+      <c r="D3" s="1">
+        <v>24.630333</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="1">
+        <v>55.479666999999999</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.977833</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="1">
+        <v>55.200167</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25.180667</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" s="1">
+        <v>54.883667000000003</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25.407</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>54.810499999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25.4085</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54.637</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25.287832999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E12" s="4"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E13" s="4"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="5:5" x14ac:dyDescent="0.35">
+      <c r="E17" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="4" width="9.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C2" s="1">
+        <v>53.8825</v>
+      </c>
+      <c r="D2" s="2">
+        <v>28.030833000000001</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+      <c r="F2">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="1">
+        <v>54.471499999999999</v>
+      </c>
+      <c r="D3" s="1">
+        <v>25.615333</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="1">
+        <v>54.571167000000003</v>
+      </c>
+      <c r="D4" s="1">
+        <v>25.632166999999999</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="1">
+        <v>54.776167000000001</v>
+      </c>
+      <c r="D5" s="1">
+        <v>25.667332999999999</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="1">
+        <v>54.841166999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25.573</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="2">
+        <v>54.810499999999998</v>
+      </c>
+      <c r="D7" s="2">
+        <v>25.4085</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="2">
+        <v>54.637</v>
+      </c>
+      <c r="D8" s="2">
+        <v>25.287832999999999</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="13.26953125" customWidth="1"/>
+    <col min="4" max="4" width="14.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
+        <v>52.165832999999999</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20.967167</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3" s="1">
+        <v>54.194499999999998</v>
+      </c>
+      <c r="D3" s="1">
+        <v>23.407</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>54.483832999999997</v>
+      </c>
+      <c r="D4" s="1">
+        <v>24.22</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>54.813667000000002</v>
+      </c>
+      <c r="D5" s="2">
+        <v>25.056999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2">
+        <v>54.637</v>
+      </c>
+      <c r="D6" s="2">
+        <v>25.287832999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="1">
+        <v>56.923667000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>23.971167000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1">
+        <v>56.368833000000002</v>
+      </c>
+      <c r="D8" s="1">
+        <v>24.630333</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>16</v>
+      </c>
+      <c r="C9" s="1">
+        <v>55.479666999999999</v>
+      </c>
+      <c r="D9" s="1">
+        <v>24.977833</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="1">
+        <v>54.471499999999999</v>
+      </c>
+      <c r="D10" s="1">
+        <v>25.615333</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="1">
+        <v>53.8825</v>
+      </c>
+      <c r="D11" s="2">
+        <v>28.030833000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>